--- a/data/revenue.xlsx
+++ b/data/revenue.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myles\OneDrive\Desktop\DEMO - Dashboard\my-project-demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC984A6-97E0-491D-9E67-896F2298C601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8998F21D-54D1-48A0-9A59-5445785AAC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="4680" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2112" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -159,15 +159,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,52 +457,52 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -585,28 +585,28 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>42100</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>38700</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>55200</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>29800</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>165800</v>
       </c>
     </row>
@@ -689,28 +689,28 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>40900</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="2">
         <v>37200</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>53100</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="2">
         <v>28500</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
         <v>159700</v>
       </c>
     </row>
@@ -793,28 +793,28 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2">
         <v>43800</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <v>39100</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="2">
         <v>56400</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="2">
         <v>30200</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="2">
         <v>169500</v>
       </c>
     </row>
@@ -897,66 +897,66 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2">
         <v>44200</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="2">
         <v>40300</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="2">
         <v>57800</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="2">
         <v>31100</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="2">
         <v>173400</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/revenue.xlsx
+++ b/data/revenue.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Myles\OneDrive\Desktop\DEMO - Dashboard\my-project-demo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA6B830-FDA4-406A-916B-A3772D40DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B53727-B57D-421B-9264-48576AE15930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2112" yWindow="3720" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
